--- a/StructureDefinition-sd-abstrichserie.xlsx
+++ b/StructureDefinition-sd-abstrichserie.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-06T12:38:37+00:00</t>
+    <t>2022-07-20T12:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -880,10 +880,10 @@
 </t>
   </si>
   <si>
-    <t>What was requested</t>
-  </si>
-  <si>
-    <t>Details concerning a service requested.</t>
+    <t>Verweis auf Auftragsnummer</t>
+  </si>
+  <si>
+    <t>Enthält die Referenzen auf die Aufträge in Form von ServiceRequests</t>
   </si>
   <si>
     <t>Note: Usually there is one test request for each result, however in some circumstances multiple test requests may be represented using a single test result resource. Note that there are also cases where one request leads to multiple reports.</t>
@@ -1303,10 +1303,10 @@
 </t>
   </si>
   <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>[Observations](http://hl7.org/fhir/R4/observation.html)  that are part of this diagnostic report.</t>
+    <t>Verweis auf Laborergebnisse</t>
+  </si>
+  <si>
+    <t>Enthält die Referenzen auf die Laborergbenisse in Form von Observations</t>
   </si>
   <si>
     <t>Observations can contain observations.</t>
@@ -1798,42 +1798,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="62.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="117.76171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="77.06640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="171.6640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="121.93359375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -5281,7 +5281,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>273</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-sd-abstrichserie.xlsx
+++ b/StructureDefinition-sd-abstrichserie.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T12:33:19+00:00</t>
+    <t>2022-08-08T12:51:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1445,16 +1445,35 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>Ergebnis</t>
+    <t>Codes for the clinical conclusion of test results</t>
   </si>
   <si>
     <t>One or more codes that represent the summary conclusion (interpretation/impression) of the diagnostic report.</t>
   </si>
   <si>
+    <t>Diagnosis codes provided as adjuncts to the report.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
+  </si>
+  <si>
+    <t>result-code</t>
+  </si>
+  <si>
     <t>https://charite.de/fhir/erregerfall/ValueSet/vs-abstrichserie-ergbenis</t>
   </si>
   <si>
-    <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
+    <t>not-countable-reason</t>
+  </si>
+  <si>
+    <t>https://charite.de/fhir/erregerfall/ValueSet/vs-nicht-zaehlbar-grund</t>
   </si>
   <si>
     <t>DiagnosticReport.presentedForm</t>
@@ -1788,7 +1807,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM59"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8179,7 +8198,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>452</v>
       </c>
@@ -8195,7 +8214,7 @@
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8237,26 +8256,26 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X58" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>452</v>
@@ -8280,17 +8299,19 @@
         <v>450</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B59" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="C59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8302,7 +8323,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8311,20 +8332,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>458</v>
+        <v>162</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8348,13 +8365,11 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="X59" s="2"/>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8372,7 +8387,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8393,14 +8408,236 @@
         <v>450</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X60" s="2"/>
+      <c r="Y60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM59">
+  <autoFilter ref="A1:AM61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8410,7 +8647,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI58">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-sd-abstrichserie.xlsx
+++ b/StructureDefinition-sd-abstrichserie.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:52+00:00</t>
+    <t>2022-08-09T15:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -446,36 +446,92 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>reasonCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {workflow-reasonCode}
+    <t>summaryOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {diagnosticReport-summaryOf}
 </t>
   </si>
   <si>
-    <t>Fragestellung</t>
-  </si>
-  <si>
-    <t>Describes why the event occurred in coded or textual form.</t>
-  </si>
-  <si>
-    <t>For free text (uncoded data) use reasonCode.text.</t>
+    <t>weitere Befunde</t>
+  </si>
+  <si>
+    <t>Liste von Auftragsnummern mit zu der Abstrichserie zugehörigen Befunden</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>EVN.4 or by domain</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension.id</t>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier</t>
+  </si>
+  <si>
+    <t>ReportID
+Filler IDPlacer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier for report</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this report by the performer or other systems.</t>
+  </si>
+  <si>
+    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
+  </si>
+  <si>
+    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:type}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Abstrichseriennummer</t>
+  </si>
+  <si>
+    <t>Eindeutige Abstrichseriennummer innerhalb des Patienten</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -490,7 +546,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>DiagnosticReport.extension.extension</t>
+    <t>DiagnosticReport.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -499,183 +561,41 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>DiagnosticReport.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/workflow-reasonCode</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension.value[x]</t>
+    <t>DiagnosticReport.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-cause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://charite.de/fhir/erregerfall/ValueSet/vs-mikrobiologischer-befund-mre-klasse</t>
-  </si>
-  <si>
-    <t>summaryOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {diagnosticReport-summaryOf}
-</t>
-  </si>
-  <si>
-    <t>weitere Befunde</t>
-  </si>
-  <si>
-    <t>Liste von Auftragsnummern mit zu der Abstrichserie zugehörigen Befunden</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier</t>
-  </si>
-  <si>
-    <t>ReportID
-Filler IDPlacer ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier for report</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this report by the performer or other systems.</t>
-  </si>
-  <si>
-    <t>Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:type}
-</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Abstrichseriennummer</t>
-  </si>
-  <si>
-    <t>Eindeutige Abstrichseriennummer innerhalb des Patienten</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier.type</t>
   </si>
   <si>
     <t>Description of identifier</t>
@@ -942,6 +862,9 @@
   </si>
   <si>
     <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes for diagnostic service sections.</t>
@@ -1807,7 +1730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1817,7 +1740,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1840,7 +1763,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.4140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2873,7 +2796,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>87</v>
@@ -2893,9 +2816,7 @@
       <c r="L10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -2953,19 +2874,19 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2973,39 +2894,43 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3053,19 +2978,19 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
@@ -3074,7 +2999,7 @@
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -3082,39 +3007,43 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3150,11 +3079,9 @@
         <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3162,7 +3089,7 @@
         <v>135</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3174,28 +3101,30 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3211,98 +3140,100 @@
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AF13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3310,7 +3241,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
@@ -3325,13 +3256,13 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3358,27 +3289,31 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3390,7 +3325,7 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>77</v>
@@ -3399,7 +3334,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3407,20 +3342,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3432,15 +3365,17 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3465,41 +3400,43 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>77</v>
@@ -3508,19 +3445,17 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3529,19 +3464,19 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>175</v>
@@ -3549,8 +3484,12 @@
       <c r="L16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3574,13 +3513,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3598,71 +3537,71 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3672,7 +3611,7 @@
         <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -3687,13 +3626,13 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3711,28 +3650,28 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3740,43 +3679,39 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3812,59 +3747,59 @@
         <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AB18" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
@@ -3873,23 +3808,21 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3925,19 +3858,19 @@
         <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3949,22 +3882,22 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>198</v>
       </c>
@@ -3977,28 +3910,32 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4046,28 +3983,28 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4075,18 +4012,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -4095,21 +4032,23 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4145,48 +4084,48 @@
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4194,34 +4133,34 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4234,7 +4173,7 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4246,13 +4185,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4270,7 +4209,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4288,10 +4227,10 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4299,7 +4238,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4322,20 +4261,18 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4344,10 +4281,10 @@
         <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>77</v>
@@ -4359,13 +4296,13 @@
         <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>77</v>
@@ -4383,7 +4320,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4401,10 +4338,10 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4412,7 +4349,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4432,16 +4369,16 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4492,7 +4429,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4504,56 +4441,56 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4591,40 +4528,40 @@
         <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4632,11 +4569,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4652,22 +4589,22 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4716,7 +4653,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4731,13 +4668,13 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4745,7 +4682,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4753,7 +4690,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -4762,25 +4699,23 @@
         <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4805,13 +4740,13 @@
         <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>77</v>
@@ -4829,10 +4764,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4844,35 +4779,35 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4881,20 +4816,18 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4906,7 +4839,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -4918,13 +4851,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -4942,13 +4875,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -4960,22 +4893,22 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4994,17 +4927,15 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5014,10 +4945,10 @@
         <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>77</v>
@@ -5029,13 +4960,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5053,10 +4984,10 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
@@ -5068,25 +4999,25 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5096,7 +5027,7 @@
         <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5105,16 +5036,18 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5162,7 +5095,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5177,21 +5110,21 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5205,26 +5138,24 @@
         <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>266</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5273,7 +5204,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5285,28 +5216,28 @@
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5316,7 +5247,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5325,20 +5256,18 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>171</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5374,19 +5303,19 @@
         <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5398,16 +5327,16 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5415,7 +5344,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5423,7 +5352,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5432,24 +5361,24 @@
         <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5473,13 +5402,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5497,47 +5426,47 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5549,16 +5478,16 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5584,13 +5513,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5608,13 +5537,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5626,26 +5555,26 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
@@ -5660,15 +5589,17 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5678,7 +5609,7 @@
         <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>77</v>
@@ -5693,13 +5624,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>308</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5717,10 +5648,10 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5732,25 +5663,25 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5760,7 +5691,7 @@
         <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5769,18 +5700,18 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>315</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5828,7 +5759,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5843,25 +5774,25 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5877,19 +5808,23 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5937,7 +5872,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5949,58 +5884,60 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>178</v>
+        <v>336</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>131</v>
+        <v>337</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>200</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>201</v>
+        <v>339</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6036,52 +5973,52 @@
         <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>154</v>
+        <v>335</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>151</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6100,18 +6037,20 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>348</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6159,7 +6098,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6168,7 +6107,7 @@
         <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6177,29 +6116,29 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>129</v>
+        <v>354</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6211,18 +6150,20 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6246,13 +6187,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6270,13 +6211,13 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
@@ -6285,35 +6226,35 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6322,18 +6263,20 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>186</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6381,13 +6324,13 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
@@ -6396,21 +6339,21 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6421,30 +6364,32 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6492,13 +6437,13 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
@@ -6510,53 +6455,53 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6605,13 +6550,13 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
@@ -6620,57 +6565,55 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6718,13 +6661,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6733,32 +6676,32 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>367</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6770,19 +6713,17 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6831,13 +6772,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -6849,29 +6790,29 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>382</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -6880,23 +6821,19 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>383</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>384</v>
+        <v>165</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6944,40 +6881,40 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>381</v>
+        <v>167</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>393</v>
+        <v>144</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6993,23 +6930,21 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>383</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>394</v>
+        <v>170</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>171</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7057,7 +6992,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>392</v>
+        <v>173</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7069,28 +7004,28 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7100,28 +7035,28 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>399</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
+        <v>147</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>403</v>
+        <v>148</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7170,7 +7105,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7182,38 +7117,38 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>404</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7222,19 +7157,19 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>407</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7283,13 +7218,13 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
@@ -7301,10 +7236,10 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7312,7 +7247,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7320,10 +7255,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
@@ -7332,20 +7267,18 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M50" t="s" s="2">
         <v>418</v>
       </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7394,13 +7327,13 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
@@ -7434,7 +7367,7 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7443,20 +7376,20 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7511,7 +7444,7 @@
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
@@ -7523,10 +7456,10 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7545,7 +7478,7 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7557,13 +7490,13 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>148</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>149</v>
+        <v>429</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7590,64 +7523,64 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>430</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>150</v>
+        <v>427</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>151</v>
+        <v>433</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="C53" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7657,7 +7590,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7666,17 +7599,15 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>200</v>
+        <v>428</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -7701,13 +7632,11 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
@@ -7725,7 +7654,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>154</v>
+        <v>427</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7737,60 +7666,58 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>151</v>
+        <v>433</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="C54" t="s" s="2">
-        <v>430</v>
+        <v>77</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7814,13 +7741,11 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -7838,7 +7763,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7850,16 +7775,16 @@
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>129</v>
+        <v>433</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7867,7 +7792,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7878,7 +7803,7 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -7890,19 +7815,19 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>439</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -7951,13 +7876,13 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
@@ -7969,675 +7894,17 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AB58" s="2"/>
-      <c r="AC58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X59" s="2"/>
-      <c r="Y59" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="X60" s="2"/>
-      <c r="Y60" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM61">
+  <autoFilter ref="A1:AM55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8647,7 +7914,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI60">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-sd-abstrichserie.xlsx
+++ b/StructureDefinition-sd-abstrichserie.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:04:17+00:00</t>
+    <t>2022-08-18T12:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-abstrichserie.xlsx
+++ b/StructureDefinition-sd-abstrichserie.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:34:44+00:00</t>
+    <t>2022-08-18T12:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-abstrichserie.xlsx
+++ b/StructureDefinition-sd-abstrichserie.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:40:08+00:00</t>
+    <t>2022-08-18T12:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-abstrichserie.xlsx
+++ b/StructureDefinition-sd-abstrichserie.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:42:22+00:00</t>
+    <t>2022-08-18T12:48:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2796,7 +2796,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>87</v>

--- a/StructureDefinition-sd-abstrichserie.xlsx
+++ b/StructureDefinition-sd-abstrichserie.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:48:30+00:00</t>
+    <t>2022-08-18T13:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-sd-abstrichserie.xlsx
+++ b/StructureDefinition-sd-abstrichserie.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T13:03:54+00:00</t>
+    <t>2022-08-25T08:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
